--- a/diemthuchanh.xlsx
+++ b/diemthuchanh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\ktlt\baitap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE71A1-0D34-49FE-A6BD-4637B509EC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2D6982-D2EF-4B7B-B251-40AB4B75C41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{64DD0F3D-3982-4BE6-9C2E-D8432C4D249F}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE30DF9E-07F8-4CED-B705-915A0E182D95}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
